--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
